--- a/tables/SWIP_Module_GSEA.xlsx
+++ b/tables/SWIP_Module_GSEA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="2343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="2335">
   <si>
     <t xml:space="preserve">Pathway</t>
   </si>
@@ -6081,12 +6081,6 @@
     <t xml:space="preserve">192167;93840;17912;67815;214459;19384;13383;245684;77531;216856;16490;245666;108100;210274;382253;245537;58234;13385;14810;242667;16485;75409;74342;14799;58194;243548;50932;242274;545156;14812;14811;14806;228836;244310;224997;69601;11946;23859;12704;72555;74007;432763;54377;13869;246317;110082;243499;107831;232813;12300;241568;192198;230775;107971;272381;333605;81905;380702;380785;107065;16494;210933;224650;228852;216028;15929;54376;243312;16492;16520;53310;14800;14802;18222;11496;53623;18213;260297;229841;18772;14803;70530;207393;232227;19158;72039;241638;16480;107448;13850;237868;26443;27376;14718;107476;231086;75475;223666;170758;14544;12349;232345;69219;11566;74256;67054;12928;13682;140559;56431;216134;330814;14678;13885</t>
   </si>
   <si>
-    <t xml:space="preserve">SigProts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19268;544817;78283;228432;381353;545622;110380;383787;227800;69372;75089;75718;100113365;242474;217682;107522;245020;243961;69017;14161;78771;672511;101706;240057;108989;30948;20910;17880;16581;18054;11758;11717;17181;19089;20725;13367;14586;14251;19215;19027;17159;20657;12492;12819;53320;51800;20513;29858;11745;20713;12570;18739;11776;17160;17470;24017;12971;53321;16210;19153;16419;625249;14756;13040;55988;54403;57435;13731;15166;20284;22342;56177;12874;17183;16432;12721;18577;19652;12268;12010;15122;15129;14580;17196;11676;11674;16409;14815;13039;20700;20714;12304;12409;22027;11816;12326;18453;11421;19091;330319;20024;14268;13405;16438;11820;17242;12669;12805;15894;12260;12317;16906;17755;19132;12505;21871;20813;16816;14399;11898;15361;15512;20111;14104;12406;14828;15212;22352;13087;17136;18671;13808;16907;17304;21817;20701;11765;18537;12091;14799;12955;13884;19035;23918;21858;17758;17528;27367;19417;14827;17308;11792;12319;13179;18952;17836;16574;14824;18753;15170;15211;22329;22370;16653;16560;13107;19247;216344;14811;11998;12330;12520;16835;18984;14115;13429;12331;12527;11305;12988;12469;16410;20469;20980;19326;226180;16430;19894;11669;14823;12345;18642;14415;14417;16524;12704;19267;13026;12568;21916;14261;22141;19349;18797;12725;20510;16451;19896;12785;15360;20496;18830;13004;20401;11534;19341;12494;22393;67397;319554;74143;103724;228140;68089;18823;57028;22213;320772;74012;19981;22327;14745;16498;26950;22608;22186;15502;19242;16490;18752;18846;12661;17916;18640;30794;17524;19878;13602;53322;13007;12286;14199;14816;14585;53357;17174;12259;50770;16195;11806;20703;19659;12262;11733;11803;13728;15530;13497;12759;16011;16004;20720;19039;12797;12308;14114;17969;209018;170935;381310;108068;117586;211232;218194;71772;73825;68292;243621;217473;229534;227620;74008;320587;16549;546071;77371;381126;215821;67784;380702;380768;217351;69601;77521;76742;239606;67809;333433;319277;73137;69675;68861;382253;226751;224617;320129;231014;432763;76952;58234;382018;233878;72946;94229;73728;383348;245666;245827;218035;380686;320827;68203;320563;216810;109934;432572;67298;330064;27801;13839;14252;22782;16001;18417;19049;22334;27226;23971;22084;16706;12927;22068;12870;15161;19156;54003;20648;20652;12727;18573;23959;14804;23969;15505;16423;16796;16979;77579;17441;16494;18295;18693;13385;19279;20423;20662;20742;20745;22099;17988;22317;16400;26417;18377;16504;242894;13166;18133;20932;12490;14229;22019;53313;14571;20810;12815;216033;100503659;268934;380785;216742;330286;216963;269784;277360;56695;330267;545389;74190;330369;208727;109552;56747;68510;78339;18191;338355;68423;102693;242667;28006;70762;56808;80334;230073;67768;71960;74334;100434;77980;107239;71302;76687;64009;56462;269295;211914;229791;101240;72461;208922;13446;109711;209268;72948;108013;229709;242425;239420;100502841;270097;230085;545192;242662;84092;104418;72634;70381;94215;72238;16897;72108;76960;56079;320840;210274;76108;233781;242557;330914;75612;103098;69352;98267;76157;235599;320981;231549;218639;233271;212163;74145;73991;67369;378937;209195;140579;209378;230903;99543;70572;231148;225027;140919;237761;271981;52850;118454;73385;329795;76499;214084;243219;234593;224794;68832;381112;74051;243385;67792;233204;21960;320405;103967;101437;107568;270058;207565;69091;107684;240028;223593;232813;330485;71946;94090;16396;109676;72160;23984;70974;80909;76877;207615;209131;70382;100198;215113;107508;238384;20362;70369;22371;230872;235611;433256;263876;217125;237459;110135;105653;237847;208898;100317;72572;107975;71678;16588;269275;52898;72993;238330;213469;140792;246316;104175;228550;107747;69574;235661;229285;140559;67216;11484;217517;227700;252864;54519;233744;225362;99571;215615;68767;64383;225283;192654;215160;224624;329910;68794;68365;67811;107702;54214;232232;69024;71268;20716;171508;71670;23859;109168;69150;103963;100037258;14270;216558;19342;13518;16971;114741;76895;69051;71853;11416;67819;107951;68137;26558;74117;77038;98845;54170;14651;66087;68631;67838;229725;15239;110355;94047;94062;116837;93742;65079;57908;67201;67865;67830;52696;67075;67282;66840;66074;67971;18189;78506;76824;67804;69726;69713;114886;74840;12301;67921;76737;66624;70495;28185;66589;72199;17237;108014;76936;110960;66222;68588;68603;74770;66606;235402;13527;78894;70757;75717;19245;66556;74192;66251;27984;67881;52665;71994;66626;71755;66894;66890;109674;74104;110208;74091;11777;67801;66454;65945;81840;269180;83965;65114;78388;63828;58807;12354;93684;83436;54126;64136;56410;56357;71780;94217;11472;56839;58810;56325;67671;58222;12282;56048;58178;53890;56715;50493;23947;26557;80985;18810;11426;56434;29876;17252;56445;56363;54473;56433;22065;50762;27357;12724;11941;53420;54524;56334;56443;14105;56213;18606;11488;11496;23792;23964;19309;22384;57266;11886;19221;12728;12960;56473;21873;16508;15203;20355;14936;12294;19419;53416;19415;53332;50779;14802;53623;114863;16439;16536;11567;619960;12015;12818;69470;64075;52331</t>
-  </si>
-  <si>
     <t xml:space="preserve">Module</t>
   </si>
   <si>
@@ -7024,24 +7018,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kalrn; Idh3g; Atp5a1; Shank3; Dlg4; Begain; Btbd11; Lrrc7; Shank2; Dlgap2; Lrrc4c; Fnbp1l; Hadhb; Nlgn1; Mccc1; Dlgap1; Cacng3; Slc25a10; Grin2b; Lrrtm1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fga; C4b; Gfap; Apoe; Wipf3; Fn1; Mdk; Hmga1; Hexb; Pltp; Ptn; Masp1; Pxdn; Olfml3; Smoc1; Fgb; Fgg; Zwint; Cxcl14; Igkv12-41; Serpine2; Pla2g7; Atl3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myh11; Kifc2; Col15a1; Cdk5r2; Prx; Avil; Nr3c1; Prph; Mpz; Dcn; Cnn1; A1bg; Cpne9; Snx27; Washc4; Cdc42bpa; Psd; Ogn; Tsn; Col11a2; Fkbp15; Ankrd13d; Washc2; Col14a1; Stk17b; Rgs8; Washc5; Bag5; Spg20; Washc1; Acy3; Bicd2; Grk2; Washc3; Wdr45b; Tppp3; Wwp2; Car7; Cbln3; Gyg; Atg4c; Stbd1; Lgi3; Mbp; Rab21; Slc18a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snx12; Hsp90b1; Ace; Shh; Tspan3; Trpc3; Ece2; Sypl; Rnf13; Itgb5; Cpd; Lmnb1; Atp6v0a2; Lmnb2; Abca2; Rab11b; Kcnj9; Clcn3; Slc1a1; Atp11a; Drp2; Sez6l2; Trpc6; Clcn4; Ndrg1; Itga3; Sez6l; Tmem127; Enpp4; Steap2; Lnpep; Tmem145; H6pd; AU040320; Colec12; Lrp1; Abcb6; Sorcs2; Vps29; Clcn5; Nlgn4l; Folh1; Emp2; Scarb2; Slc1a6; Cd200; Cntnap1; Hcn2; Itpr1; Chrm1; Kras; Cd81; Cd9; Itgav; Slc12a2; Lpar1; Kcnab2; Plxna3; Grm1; Dipk2a; Fat2; Igf1r; Mog; Kcnc3; Cd34; Atp2a3; D630045J12Rik; Thsd7a; Kcnip4; Slc44a1; Gabbr2; Bcas1; Astn2; Lrrc24; Fam177a; Tmem67; Snx30; Stxbp6; Dusp15; Sirt2; Lrp1b; Abcb9; Tollip; Clcn2; Ptgfrn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngp; Man2b1; Gpld1; Ctss; Matn4; Ctsl; Serpina3k; Dmd; Grn; Ptpn6; Vcam1; Avp; Jak1; Chl1; Myo1f; Csrp1; Snta1; Omg; Pla2g15; Dtna; Arfgap3; Ncf1; Tmeff2; Hexa; Rtn4r; Man2b2; Cd44; Gfra1; Lgals3bp; Plbd2; Islr2; Cbarp; Plxnb1; Ptp4a3; Lgals8; Crybb1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Csmd3; Flot1; Septin8; Lrrc57; Prrt2; Gabra6; Gria1; Septin4; Kcna2; Cacna1a; Grm2; Arsg; Plxnd1; Shisa6; Zdhhc8; Cd47; Kcna6; Ctnna3; Fbxo41; Igsf1; Phf24; Slc43a2; Lgi2; Igsf8; Tmem121b; Lgi1; Adam11; Adam22; Adam23; Tenm2; Heph; Tom1l2; Prcp</t>
   </si>
 </sst>
 </file>
@@ -15469,14 +15445,6 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="1013">
-      <c r="A1013" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B1013" t="s">
-        <v>2023</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15493,42 +15461,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B1" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1" t="s">
         <v>2026</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2027</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>2028</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>2029</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>2030</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>2031</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2032</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B2" t="n">
         <v>100</v>
@@ -15558,12 +15526,12 @@
         <v>0.00692404574716426</v>
       </c>
       <c r="K2" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B3" t="n">
         <v>266</v>
@@ -15593,12 +15561,12 @@
         <v>0.00000000929565328982408</v>
       </c>
       <c r="K3" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B4" t="n">
         <v>288</v>
@@ -15628,12 +15596,12 @@
         <v>0.000570665856531942</v>
       </c>
       <c r="K4" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B5" t="n">
         <v>288</v>
@@ -15663,12 +15631,12 @@
         <v>0.00000000279571061518226</v>
       </c>
       <c r="K5" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B6" t="n">
         <v>315</v>
@@ -15698,12 +15666,12 @@
         <v>0.00209694376522647</v>
       </c>
       <c r="K6" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B7" t="n">
         <v>288</v>
@@ -15733,12 +15701,12 @@
         <v>0.00141218965907757</v>
       </c>
       <c r="K7" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B8" t="n">
         <v>252</v>
@@ -15768,12 +15736,12 @@
         <v>0.000000000000000000261733962648155</v>
       </c>
       <c r="K8" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B9" t="n">
         <v>252</v>
@@ -15803,12 +15771,12 @@
         <v>0.000000000000000000000000000000468070295877533</v>
       </c>
       <c r="K9" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B10" t="n">
         <v>547</v>
@@ -15838,12 +15806,12 @@
         <v>0.000000000000410805827663668</v>
       </c>
       <c r="K10" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B11" t="n">
         <v>547</v>
@@ -15873,12 +15841,12 @@
         <v>0.0000000540260726742258</v>
       </c>
       <c r="K11" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="B12" t="n">
         <v>29</v>
@@ -15908,12 +15876,12 @@
         <v>0.00000510641526531197</v>
       </c>
       <c r="K12" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B13" t="n">
         <v>257</v>
@@ -15943,12 +15911,12 @@
         <v>0.00000000000000000000463253043160284</v>
       </c>
       <c r="K13" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="B14" t="n">
         <v>62</v>
@@ -15978,12 +15946,12 @@
         <v>0.0120398679727667</v>
       </c>
       <c r="K14" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B15" t="n">
         <v>547</v>
@@ -16013,12 +15981,12 @@
         <v>0.0000000000000000000126832185074101</v>
       </c>
       <c r="K15" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B16" t="n">
         <v>178</v>
@@ -16048,12 +16016,12 @@
         <v>0.00824172197426943</v>
       </c>
       <c r="K16" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B17" t="n">
         <v>191</v>
@@ -16083,12 +16051,12 @@
         <v>0.0041506319730833</v>
       </c>
       <c r="K17" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="B18" t="n">
         <v>303</v>
@@ -16118,12 +16086,12 @@
         <v>0.0164540211876757</v>
       </c>
       <c r="K18" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B19" t="n">
         <v>191</v>
@@ -16153,12 +16121,12 @@
         <v>0.00471532413625868</v>
       </c>
       <c r="K19" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B20" t="n">
         <v>96</v>
@@ -16188,12 +16156,12 @@
         <v>0.000310942354092275</v>
       </c>
       <c r="K20" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B21" t="n">
         <v>96</v>
@@ -16223,12 +16191,12 @@
         <v>0.000310942354092275</v>
       </c>
       <c r="K21" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B22" t="n">
         <v>96</v>
@@ -16258,12 +16226,12 @@
         <v>0.0000637241187900162</v>
       </c>
       <c r="K22" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B23" t="n">
         <v>96</v>
@@ -16293,12 +16261,12 @@
         <v>0.0000429228648141902</v>
       </c>
       <c r="K23" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B24" t="n">
         <v>96</v>
@@ -16328,12 +16296,12 @@
         <v>0.000403647731811751</v>
       </c>
       <c r="K24" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B25" t="n">
         <v>252</v>
@@ -16363,12 +16331,12 @@
         <v>0.000683499751079763</v>
       </c>
       <c r="K25" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B26" t="n">
         <v>191</v>
@@ -16398,12 +16366,12 @@
         <v>0.00366415438988632</v>
       </c>
       <c r="K26" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="B27" t="n">
         <v>6</v>
@@ -16433,12 +16401,12 @@
         <v>0.000671123267495506</v>
       </c>
       <c r="K27" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="B28" t="n">
         <v>6</v>
@@ -16468,12 +16436,12 @@
         <v>0.00333948145038605</v>
       </c>
       <c r="K28" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B29" t="n">
         <v>49</v>
@@ -16503,12 +16471,12 @@
         <v>0.0149259635301183</v>
       </c>
       <c r="K29" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B30" t="n">
         <v>315</v>
@@ -16538,12 +16506,12 @@
         <v>0.00478127293985779</v>
       </c>
       <c r="K30" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B31" t="n">
         <v>130</v>
@@ -16573,12 +16541,12 @@
         <v>0.000204059435585821</v>
       </c>
       <c r="K31" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B32" t="n">
         <v>547</v>
@@ -16608,12 +16576,12 @@
         <v>0.00000000368982681298308</v>
       </c>
       <c r="K32" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B33" t="n">
         <v>315</v>
@@ -16643,12 +16611,12 @@
         <v>0.044594959774423</v>
       </c>
       <c r="K33" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B34" t="n">
         <v>252</v>
@@ -16678,12 +16646,12 @@
         <v>0.0000209012589034853</v>
       </c>
       <c r="K34" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B35" t="n">
         <v>187</v>
@@ -16713,12 +16681,12 @@
         <v>0.00954087401004481</v>
       </c>
       <c r="K35" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B36" t="n">
         <v>187</v>
@@ -16748,12 +16716,12 @@
         <v>0.00169947787109892</v>
       </c>
       <c r="K36" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B37" t="n">
         <v>187</v>
@@ -16783,12 +16751,12 @@
         <v>0.00954495939576955</v>
       </c>
       <c r="K37" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B38" t="n">
         <v>149</v>
@@ -16818,12 +16786,12 @@
         <v>0.000500638581556614</v>
       </c>
       <c r="K38" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B39" t="n">
         <v>263</v>
@@ -16853,12 +16821,12 @@
         <v>0.00277751583711634</v>
       </c>
       <c r="K39" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B40" t="n">
         <v>61</v>
@@ -16888,12 +16856,12 @@
         <v>0.0231726721931644</v>
       </c>
       <c r="K40" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B41" t="n">
         <v>465</v>
@@ -16923,12 +16891,12 @@
         <v>0.0154280458634974</v>
       </c>
       <c r="K41" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B42" t="n">
         <v>61</v>
@@ -16958,12 +16926,12 @@
         <v>0.011652615633663</v>
       </c>
       <c r="K42" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B43" t="n">
         <v>130</v>
@@ -16993,12 +16961,12 @@
         <v>0.0000000000000127090570301952</v>
       </c>
       <c r="K43" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B44" t="n">
         <v>130</v>
@@ -17028,12 +16996,12 @@
         <v>0.000000000000186710722156944</v>
       </c>
       <c r="K44" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B45" t="n">
         <v>130</v>
@@ -17063,12 +17031,12 @@
         <v>0.000331514118646639</v>
       </c>
       <c r="K45" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B46" t="n">
         <v>130</v>
@@ -17098,12 +17066,12 @@
         <v>0.00322441362377775</v>
       </c>
       <c r="K46" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B47" t="n">
         <v>178</v>
@@ -17133,12 +17101,12 @@
         <v>0.0000000117255605133677</v>
       </c>
       <c r="K47" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B48" t="n">
         <v>178</v>
@@ -17168,12 +17136,12 @@
         <v>0.00000107611225227557</v>
       </c>
       <c r="K48" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B49" t="n">
         <v>178</v>
@@ -17203,12 +17171,12 @@
         <v>0.0000000117373687045504</v>
       </c>
       <c r="K49" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B50" t="n">
         <v>178</v>
@@ -17238,12 +17206,12 @@
         <v>0.0000631686012694127</v>
       </c>
       <c r="K50" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B51" t="n">
         <v>178</v>
@@ -17273,12 +17241,12 @@
         <v>0.00000107611225227557</v>
       </c>
       <c r="K51" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B52" t="n">
         <v>252</v>
@@ -17308,12 +17276,12 @@
         <v>0.00000000014271211465024</v>
       </c>
       <c r="K52" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B53" t="n">
         <v>252</v>
@@ -17343,12 +17311,12 @@
         <v>0.0000000311514620299266</v>
       </c>
       <c r="K53" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B54" t="n">
         <v>252</v>
@@ -17378,12 +17346,12 @@
         <v>0.00000000000504297696953779</v>
       </c>
       <c r="K54" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B55" t="n">
         <v>252</v>
@@ -17413,12 +17381,12 @@
         <v>0.000000353527530491337</v>
       </c>
       <c r="K55" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B56" t="n">
         <v>252</v>
@@ -17448,12 +17416,12 @@
         <v>0.0000110526079327616</v>
       </c>
       <c r="K56" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B57" t="n">
         <v>315</v>
@@ -17483,12 +17451,12 @@
         <v>0.000122824748030887</v>
       </c>
       <c r="K57" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B58" t="n">
         <v>288</v>
@@ -17518,12 +17486,12 @@
         <v>0.0437100009715755</v>
       </c>
       <c r="K58" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B59" t="n">
         <v>315</v>
@@ -17553,12 +17521,12 @@
         <v>0.0030093923384114</v>
       </c>
       <c r="K59" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B60" t="n">
         <v>191</v>
@@ -17588,12 +17556,12 @@
         <v>0.0101564168208299</v>
       </c>
       <c r="K60" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B61" t="n">
         <v>130</v>
@@ -17623,12 +17591,12 @@
         <v>0.00130777762086667</v>
       </c>
       <c r="K61" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B62" t="n">
         <v>130</v>
@@ -17658,12 +17626,12 @@
         <v>0.000331514118646639</v>
       </c>
       <c r="K62" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B63" t="n">
         <v>315</v>
@@ -17693,12 +17661,12 @@
         <v>0.00478127293985779</v>
       </c>
       <c r="K63" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B64" t="n">
         <v>212</v>
@@ -17728,12 +17696,12 @@
         <v>0.0463330364595089</v>
       </c>
       <c r="K64" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B65" t="n">
         <v>465</v>
@@ -17763,12 +17731,12 @@
         <v>0.0306362063150606</v>
       </c>
       <c r="K65" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B66" t="n">
         <v>130</v>
@@ -17798,12 +17766,12 @@
         <v>0.00000226363870451698</v>
       </c>
       <c r="K66" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B67" t="n">
         <v>130</v>
@@ -17833,12 +17801,12 @@
         <v>0.0000059454038952271</v>
       </c>
       <c r="K67" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B68" t="n">
         <v>257</v>
@@ -17868,12 +17836,12 @@
         <v>0.00000334396335341847</v>
       </c>
       <c r="K68" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B69" t="n">
         <v>257</v>
@@ -17903,12 +17871,12 @@
         <v>0.000462258761465275</v>
       </c>
       <c r="K69" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B70" t="n">
         <v>257</v>
@@ -17938,12 +17906,12 @@
         <v>0.000462258761465275</v>
       </c>
       <c r="K70" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B71" t="n">
         <v>130</v>
@@ -17973,12 +17941,12 @@
         <v>0.00000609295123995994</v>
       </c>
       <c r="K71" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B72" t="n">
         <v>130</v>
@@ -18008,12 +17976,12 @@
         <v>0.000331514118646639</v>
       </c>
       <c r="K72" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B73" t="n">
         <v>130</v>
@@ -18043,12 +18011,12 @@
         <v>0.00636007969590185</v>
       </c>
       <c r="K73" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B74" t="n">
         <v>252</v>
@@ -18078,12 +18046,12 @@
         <v>0.00000000025939981704861</v>
       </c>
       <c r="K74" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B75" t="n">
         <v>252</v>
@@ -18113,12 +18081,12 @@
         <v>0.00000000100475360331409</v>
       </c>
       <c r="K75" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B76" t="n">
         <v>252</v>
@@ -18148,12 +18116,12 @@
         <v>0.00000315886492478312</v>
       </c>
       <c r="K76" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B77" t="n">
         <v>252</v>
@@ -18183,12 +18151,12 @@
         <v>0.00244215524288131</v>
       </c>
       <c r="K77" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B78" t="n">
         <v>547</v>
@@ -18218,12 +18186,12 @@
         <v>0.0000000541810926857585</v>
       </c>
       <c r="K78" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B79" t="n">
         <v>547</v>
@@ -18253,12 +18221,12 @@
         <v>0.0000109309598652199</v>
       </c>
       <c r="K79" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B80" t="n">
         <v>315</v>
@@ -18288,12 +18256,12 @@
         <v>0.000215883814361162</v>
       </c>
       <c r="K80" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B81" t="n">
         <v>315</v>
@@ -18323,12 +18291,12 @@
         <v>0.0184774403163477</v>
       </c>
       <c r="K81" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B82" t="n">
         <v>252</v>
@@ -18358,12 +18326,12 @@
         <v>0.00000000025939981704861</v>
       </c>
       <c r="K82" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B83" t="n">
         <v>315</v>
@@ -18393,12 +18361,12 @@
         <v>0.00000971774008775818</v>
       </c>
       <c r="K83" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B84" t="n">
         <v>315</v>
@@ -18428,12 +18396,12 @@
         <v>0.00202334333491443</v>
       </c>
       <c r="K84" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B85" t="n">
         <v>61</v>
@@ -18463,12 +18431,12 @@
         <v>0.011652615633663</v>
       </c>
       <c r="K85" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B86" t="n">
         <v>547</v>
@@ -18498,12 +18466,12 @@
         <v>0.0251382747224709</v>
       </c>
       <c r="K86" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B87" t="n">
         <v>547</v>
@@ -18533,12 +18501,12 @@
         <v>0.0251382747224709</v>
       </c>
       <c r="K87" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B88" t="n">
         <v>547</v>
@@ -18568,12 +18536,12 @@
         <v>0.0251382747224709</v>
       </c>
       <c r="K88" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B89" t="n">
         <v>315</v>
@@ -18603,12 +18571,12 @@
         <v>0.000485108828730648</v>
       </c>
       <c r="K89" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B90" t="n">
         <v>98</v>
@@ -18638,12 +18606,12 @@
         <v>0.000557938989475548</v>
       </c>
       <c r="K90" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B91" t="n">
         <v>112</v>
@@ -18673,12 +18641,12 @@
         <v>0.00000333151009784133</v>
       </c>
       <c r="K91" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B92" t="n">
         <v>547</v>
@@ -18708,12 +18676,12 @@
         <v>0.000871597624953007</v>
       </c>
       <c r="K92" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B93" t="n">
         <v>547</v>
@@ -18743,12 +18711,12 @@
         <v>0.0251382747224709</v>
       </c>
       <c r="K93" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B94" t="n">
         <v>252</v>
@@ -18778,12 +18746,12 @@
         <v>0.000427131166665594</v>
       </c>
       <c r="K94" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B95" t="n">
         <v>252</v>
@@ -18813,12 +18781,12 @@
         <v>0.00950052785186269</v>
       </c>
       <c r="K95" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B96" t="n">
         <v>288</v>
@@ -18848,12 +18816,12 @@
         <v>0.00000618969678016438</v>
       </c>
       <c r="K96" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B97" t="n">
         <v>288</v>
@@ -18883,12 +18851,12 @@
         <v>0.000727721691148984</v>
       </c>
       <c r="K97" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B98" t="n">
         <v>288</v>
@@ -18918,12 +18886,12 @@
         <v>0.00365089560197944</v>
       </c>
       <c r="K98" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B99" t="n">
         <v>288</v>
@@ -18953,12 +18921,12 @@
         <v>0.0000000000000139446339438262</v>
       </c>
       <c r="K99" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B100" t="n">
         <v>288</v>
@@ -18988,12 +18956,12 @@
         <v>0.000150579630472379</v>
       </c>
       <c r="K100" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B101" t="n">
         <v>252</v>
@@ -19023,12 +18991,12 @@
         <v>0.0000880024103440587</v>
       </c>
       <c r="K101" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="B102" t="n">
         <v>72</v>
@@ -19058,12 +19026,12 @@
         <v>0.0162580876816505</v>
       </c>
       <c r="K102" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B103" t="n">
         <v>112</v>
@@ -19093,12 +19061,12 @@
         <v>0.000211199401615446</v>
       </c>
       <c r="K103" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="B104" t="n">
         <v>303</v>
@@ -19128,12 +19096,12 @@
         <v>0.0194990166767633</v>
       </c>
       <c r="K104" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B105" t="n">
         <v>191</v>
@@ -19163,12 +19131,12 @@
         <v>0.000413309501639785</v>
       </c>
       <c r="K105" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="B106" t="n">
         <v>67</v>
@@ -19198,12 +19166,12 @@
         <v>0.0000279496100816873</v>
       </c>
       <c r="K106" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B107" t="n">
         <v>61</v>
@@ -19233,12 +19201,12 @@
         <v>0.00180957033885102</v>
       </c>
       <c r="K107" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B108" t="n">
         <v>61</v>
@@ -19268,12 +19236,12 @@
         <v>0.011652615633663</v>
       </c>
       <c r="K108" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B109" t="n">
         <v>178</v>
@@ -19303,12 +19271,12 @@
         <v>0.0000201686342968005</v>
       </c>
       <c r="K109" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B110" t="n">
         <v>547</v>
@@ -19338,12 +19306,12 @@
         <v>0.000000000214716250364898</v>
       </c>
       <c r="K110" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="B111" t="n">
         <v>45</v>
@@ -19373,12 +19341,12 @@
         <v>0.0000131489974943979</v>
       </c>
       <c r="K111" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B112" t="n">
         <v>547</v>
@@ -19408,12 +19376,12 @@
         <v>0.00284953319608562</v>
       </c>
       <c r="K112" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B113" t="n">
         <v>246</v>
@@ -19443,12 +19411,12 @@
         <v>0.00227117194353907</v>
       </c>
       <c r="K113" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B114" t="n">
         <v>246</v>
@@ -19478,12 +19446,12 @@
         <v>0.00227117194353907</v>
       </c>
       <c r="K114" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B115" t="n">
         <v>246</v>
@@ -19513,12 +19481,12 @@
         <v>0.00227117194353907</v>
       </c>
       <c r="K115" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B116" t="n">
         <v>150</v>
@@ -19548,12 +19516,12 @@
         <v>0.00000000482048641693131</v>
       </c>
       <c r="K116" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B117" t="n">
         <v>112</v>
@@ -19583,12 +19551,12 @@
         <v>0.000834442298803749</v>
       </c>
       <c r="K117" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B118" t="n">
         <v>191</v>
@@ -19618,12 +19586,12 @@
         <v>0.000832871604551965</v>
       </c>
       <c r="K118" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B119" t="n">
         <v>150</v>
@@ -19653,12 +19621,12 @@
         <v>0.0263903814415447</v>
       </c>
       <c r="K119" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B120" t="n">
         <v>150</v>
@@ -19688,12 +19656,12 @@
         <v>0.00494691942529891</v>
       </c>
       <c r="K120" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B121" t="n">
         <v>96</v>
@@ -19723,12 +19691,12 @@
         <v>0.000524246581764236</v>
       </c>
       <c r="K121" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="B122" t="n">
         <v>67</v>
@@ -19758,12 +19726,12 @@
         <v>0.0140704568141585</v>
       </c>
       <c r="K122" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B123" t="n">
         <v>246</v>
@@ -19793,12 +19761,12 @@
         <v>0.00227117194353907</v>
       </c>
       <c r="K123" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B124" t="n">
         <v>191</v>
@@ -19828,12 +19796,12 @@
         <v>0.000294007405901947</v>
       </c>
       <c r="K124" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B125" t="n">
         <v>191</v>
@@ -19863,12 +19831,12 @@
         <v>0.0341021176100048</v>
       </c>
       <c r="K125" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B126" t="n">
         <v>130</v>
@@ -19898,12 +19866,12 @@
         <v>0.00636007969590185</v>
       </c>
       <c r="K126" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B127" t="n">
         <v>266</v>
@@ -19933,12 +19901,12 @@
         <v>0.000213681258877109</v>
       </c>
       <c r="K127" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B128" t="n">
         <v>315</v>
@@ -19968,12 +19936,12 @@
         <v>0.0000561259979764585</v>
       </c>
       <c r="K128" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B129" t="n">
         <v>315</v>
@@ -20003,12 +19971,12 @@
         <v>0.0184774403163477</v>
       </c>
       <c r="K129" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B130" t="n">
         <v>315</v>
@@ -20038,12 +20006,12 @@
         <v>0.0226436600524749</v>
       </c>
       <c r="K130" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="B131" t="n">
         <v>303</v>
@@ -20073,12 +20041,12 @@
         <v>0.0397986787788047</v>
       </c>
       <c r="K131" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B132" t="n">
         <v>95</v>
@@ -20108,12 +20076,12 @@
         <v>0.0283373266625597</v>
       </c>
       <c r="K132" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B133" t="n">
         <v>252</v>
@@ -20143,12 +20111,12 @@
         <v>0.000000000000000000261733962648155</v>
       </c>
       <c r="K133" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B134" t="n">
         <v>150</v>
@@ -20178,12 +20146,12 @@
         <v>0.00468970461711819</v>
       </c>
       <c r="K134" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B135" t="n">
         <v>150</v>
@@ -20213,12 +20181,12 @@
         <v>0.009167403928931</v>
       </c>
       <c r="K135" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B136" t="n">
         <v>61</v>
@@ -20248,12 +20216,12 @@
         <v>0.0383905658259064</v>
       </c>
       <c r="K136" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B137" t="n">
         <v>149</v>
@@ -20283,12 +20251,12 @@
         <v>0.00484904943413713</v>
       </c>
       <c r="K137" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B138" t="n">
         <v>252</v>
@@ -20318,12 +20286,12 @@
         <v>0.0231106228796583</v>
       </c>
       <c r="K138" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="B139" t="n">
         <v>303</v>
@@ -20353,12 +20321,12 @@
         <v>0.0233375399125277</v>
       </c>
       <c r="K139" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B140" t="n">
         <v>465</v>
@@ -20388,12 +20356,12 @@
         <v>0.0204339967347206</v>
       </c>
       <c r="K140" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B141" t="n">
         <v>252</v>
@@ -20423,12 +20391,12 @@
         <v>0.00244215524288131</v>
       </c>
       <c r="K141" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B142" t="n">
         <v>315</v>
@@ -20458,12 +20426,12 @@
         <v>0.00000130123023487377</v>
       </c>
       <c r="K142" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B143" t="n">
         <v>288</v>
@@ -20493,12 +20461,12 @@
         <v>0.00306973493354652</v>
       </c>
       <c r="K143" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B144" t="n">
         <v>178</v>
@@ -20528,12 +20496,12 @@
         <v>0.000312351836838358</v>
       </c>
       <c r="K144" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B145" t="n">
         <v>61</v>
@@ -20563,12 +20531,12 @@
         <v>0.0000333497124611263</v>
       </c>
       <c r="K145" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B146" t="n">
         <v>61</v>
@@ -20598,12 +20566,12 @@
         <v>0.000132559074161692</v>
       </c>
       <c r="K146" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B147" t="n">
         <v>191</v>
@@ -20633,12 +20601,12 @@
         <v>0.00324622657612063</v>
       </c>
       <c r="K147" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B148" t="n">
         <v>98</v>
@@ -20668,12 +20636,12 @@
         <v>0.000557938989475548</v>
       </c>
       <c r="K148" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B149" t="n">
         <v>191</v>
@@ -20703,12 +20671,12 @@
         <v>0.000943009957396795</v>
       </c>
       <c r="K149" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B150" t="n">
         <v>547</v>
@@ -20738,12 +20706,12 @@
         <v>0.0000000000353676250228957</v>
       </c>
       <c r="K150" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B151" t="n">
         <v>547</v>
@@ -20773,12 +20741,12 @@
         <v>0.000000955863160687658</v>
       </c>
       <c r="K151" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B152" t="n">
         <v>61</v>
@@ -20808,12 +20776,12 @@
         <v>0.011652615633663</v>
       </c>
       <c r="K152" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B153" t="n">
         <v>61</v>
@@ -20843,12 +20811,12 @@
         <v>0.011652615633663</v>
       </c>
       <c r="K153" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B154" t="n">
         <v>191</v>
@@ -20878,12 +20846,12 @@
         <v>0.0101607638348033</v>
       </c>
       <c r="K154" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B155" t="n">
         <v>191</v>
@@ -20913,12 +20881,12 @@
         <v>0.000413309501639785</v>
       </c>
       <c r="K155" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B156" t="n">
         <v>191</v>
@@ -20948,12 +20916,12 @@
         <v>0.000140896625969391</v>
       </c>
       <c r="K156" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B157" t="n">
         <v>191</v>
@@ -20983,12 +20951,12 @@
         <v>0.00184529860100517</v>
       </c>
       <c r="K157" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B158" t="n">
         <v>315</v>
@@ -21018,12 +20986,12 @@
         <v>0.0446327786236869</v>
       </c>
       <c r="K158" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B159" t="n">
         <v>61</v>
@@ -21053,12 +21021,12 @@
         <v>0.000329169816716097</v>
       </c>
       <c r="K159" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B160" t="n">
         <v>257</v>
@@ -21088,12 +21056,12 @@
         <v>0.000000000000216803224880784</v>
       </c>
       <c r="K160" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B161" t="n">
         <v>95</v>
@@ -21123,12 +21091,12 @@
         <v>0.0283373266625597</v>
       </c>
       <c r="K161" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B162" t="n">
         <v>191</v>
@@ -21158,12 +21126,12 @@
         <v>0.0341309050223301</v>
       </c>
       <c r="K162" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="B163" t="n">
         <v>72</v>
@@ -21193,12 +21161,12 @@
         <v>0.0322874931108983</v>
       </c>
       <c r="K163" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B164" t="n">
         <v>96</v>
@@ -21228,12 +21196,12 @@
         <v>0.0289374315260083</v>
       </c>
       <c r="K164" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B165" t="n">
         <v>288</v>
@@ -21263,12 +21231,12 @@
         <v>0.0000000000000000000000000000000051289665053797</v>
       </c>
       <c r="K165" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B166" t="n">
         <v>257</v>
@@ -21298,12 +21266,12 @@
         <v>0.0104535163231177</v>
       </c>
       <c r="K166" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B167" t="n">
         <v>191</v>
@@ -21333,12 +21301,12 @@
         <v>0.0341021176100048</v>
       </c>
       <c r="K167" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B168" t="n">
         <v>191</v>
@@ -21368,12 +21336,12 @@
         <v>0.00184425504033597</v>
       </c>
       <c r="K168" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B169" t="n">
         <v>266</v>
@@ -21403,12 +21371,12 @@
         <v>0.000024105255023079</v>
       </c>
       <c r="K169" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B170" t="n">
         <v>266</v>
@@ -21438,12 +21406,12 @@
         <v>0.00000106168753809783</v>
       </c>
       <c r="K170" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B171" t="n">
         <v>191</v>
@@ -21473,12 +21441,12 @@
         <v>0.00105927267447206</v>
       </c>
       <c r="K171" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B172" t="n">
         <v>315</v>
@@ -21508,12 +21476,12 @@
         <v>0.00478127293985779</v>
       </c>
       <c r="K172" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B173" t="n">
         <v>252</v>
@@ -21543,12 +21511,12 @@
         <v>0.000000000000000000000310224468035523</v>
       </c>
       <c r="K173" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B174" t="n">
         <v>252</v>
@@ -21578,12 +21546,12 @@
         <v>0.00000000000000000379960016829985</v>
       </c>
       <c r="K174" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B175" t="n">
         <v>252</v>
@@ -21613,12 +21581,12 @@
         <v>0.0000000000000000000000643822566716874</v>
       </c>
       <c r="K175" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B176" t="n">
         <v>252</v>
@@ -21648,12 +21616,12 @@
         <v>0.000000000000000000000000000000000000000000000399249957580143</v>
       </c>
       <c r="K176" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B177" t="n">
         <v>288</v>
@@ -21683,12 +21651,12 @@
         <v>0.0000000000000000844069571047153</v>
       </c>
       <c r="K177" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B178" t="n">
         <v>178</v>
@@ -21718,12 +21686,12 @@
         <v>0.0372865595216942</v>
       </c>
       <c r="K178" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B179" t="n">
         <v>179</v>
@@ -21753,12 +21721,12 @@
         <v>0.00341734483809256</v>
       </c>
       <c r="K179" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B180" t="n">
         <v>112</v>
@@ -21788,12 +21756,12 @@
         <v>0.0393848484121604</v>
       </c>
       <c r="K180" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B181" t="n">
         <v>100</v>
@@ -21823,12 +21791,12 @@
         <v>0.00136016045358591</v>
       </c>
       <c r="K181" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B182" t="n">
         <v>95</v>
@@ -21858,12 +21826,12 @@
         <v>0.0283373266625597</v>
       </c>
       <c r="K182" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B183" t="n">
         <v>191</v>
@@ -21893,12 +21861,12 @@
         <v>0.0199079815957778</v>
       </c>
       <c r="K183" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B184" t="n">
         <v>315</v>
@@ -21928,12 +21896,12 @@
         <v>0.000189102084826794</v>
       </c>
       <c r="K184" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B185" t="n">
         <v>263</v>
@@ -21963,12 +21931,12 @@
         <v>0.0107918983870832</v>
       </c>
       <c r="K185" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B186" t="n">
         <v>547</v>
@@ -21998,12 +21966,12 @@
         <v>0.00927308146213491</v>
       </c>
       <c r="K186" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B187" t="n">
         <v>98</v>
@@ -22033,12 +22001,12 @@
         <v>0.0301563232076963</v>
       </c>
       <c r="K187" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="B188" t="n">
         <v>67</v>
@@ -22068,12 +22036,12 @@
         <v>0.0140704568141585</v>
       </c>
       <c r="K188" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B189" t="n">
         <v>547</v>
@@ -22103,12 +22071,12 @@
         <v>0.00000000000169579321890557</v>
       </c>
       <c r="K189" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B190" t="n">
         <v>547</v>
@@ -22138,12 +22106,12 @@
         <v>0.000000955863160687658</v>
       </c>
       <c r="K190" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B191" t="n">
         <v>547</v>
@@ -22173,12 +22141,12 @@
         <v>0.00000310395604145522</v>
       </c>
       <c r="K191" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B192" t="n">
         <v>547</v>
@@ -22208,12 +22176,12 @@
         <v>0.0000000000000000000000000000000691425581389119</v>
       </c>
       <c r="K192" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B193" t="n">
         <v>547</v>
@@ -22243,12 +22211,12 @@
         <v>0.0000000000353676250228957</v>
       </c>
       <c r="K193" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B194" t="n">
         <v>547</v>
@@ -22278,12 +22246,12 @@
         <v>0.0251382747224709</v>
       </c>
       <c r="K194" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B195" t="n">
         <v>547</v>
@@ -22313,12 +22281,12 @@
         <v>0.0251382747224709</v>
       </c>
       <c r="K195" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B196" t="n">
         <v>547</v>
@@ -22348,12 +22316,12 @@
         <v>0.00197904796657369</v>
       </c>
       <c r="K196" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B197" t="n">
         <v>547</v>
@@ -22383,12 +22351,12 @@
         <v>0.000155539592683385</v>
       </c>
       <c r="K197" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B198" t="n">
         <v>547</v>
@@ -22418,12 +22386,12 @@
         <v>0.00000000583428972759367</v>
       </c>
       <c r="K198" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B199" t="n">
         <v>547</v>
@@ -22453,12 +22421,12 @@
         <v>0.000000000454641928366944</v>
       </c>
       <c r="K199" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B200" t="n">
         <v>547</v>
@@ -22488,12 +22456,12 @@
         <v>0.0000000000000188563774478088</v>
       </c>
       <c r="K200" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B201" t="n">
         <v>547</v>
@@ -22523,12 +22491,12 @@
         <v>0.000000000000000000000000008508062479487</v>
       </c>
       <c r="K201" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B202" t="n">
         <v>547</v>
@@ -22558,12 +22526,12 @@
         <v>0.00000000000000682443837243947</v>
       </c>
       <c r="K202" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B203" t="n">
         <v>547</v>
@@ -22593,12 +22561,12 @@
         <v>0.000000025839554515634</v>
       </c>
       <c r="K203" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B204" t="n">
         <v>547</v>
@@ -22628,12 +22596,12 @@
         <v>0.000000000000000000000000000000000536185871157552</v>
       </c>
       <c r="K204" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="B205" t="n">
         <v>29</v>
@@ -22663,12 +22631,12 @@
         <v>0.000528783344544342</v>
       </c>
       <c r="K205" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B206" t="n">
         <v>288</v>
@@ -22698,12 +22666,12 @@
         <v>0.000000000000000000000000000000500074089454101</v>
       </c>
       <c r="K206" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B207" t="n">
         <v>257</v>
@@ -22733,12 +22701,12 @@
         <v>0.00000000000298627411211915</v>
       </c>
       <c r="K207" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B208" t="n">
         <v>547</v>
@@ -22768,12 +22736,12 @@
         <v>0.000872219563023884</v>
       </c>
       <c r="K208" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B209" t="n">
         <v>266</v>
@@ -22803,12 +22771,12 @@
         <v>0.000890423594260507</v>
       </c>
       <c r="K209" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B210" t="n">
         <v>149</v>
@@ -22838,12 +22806,12 @@
         <v>0.00484904943413713</v>
       </c>
       <c r="K210" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B211" t="n">
         <v>288</v>
@@ -22873,12 +22841,12 @@
         <v>0.00921313366822084</v>
       </c>
       <c r="K211" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B212" t="n">
         <v>191</v>
@@ -22908,12 +22876,12 @@
         <v>0.0341165072690422</v>
       </c>
       <c r="K212" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B213" t="n">
         <v>191</v>
@@ -22943,12 +22911,12 @@
         <v>0.0341021176100048</v>
       </c>
       <c r="K213" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B214" t="n">
         <v>191</v>
@@ -22978,12 +22946,12 @@
         <v>0.040230072934003</v>
       </c>
       <c r="K214" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B215" t="n">
         <v>274</v>
@@ -23013,12 +22981,12 @@
         <v>0.00173481052073557</v>
       </c>
       <c r="K215" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B216" t="n">
         <v>125</v>
@@ -23048,12 +23016,12 @@
         <v>0.00977089543563164</v>
       </c>
       <c r="K216" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B217" t="n">
         <v>125</v>
@@ -23083,12 +23051,12 @@
         <v>0.00565811589316746</v>
       </c>
       <c r="K217" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B218" t="n">
         <v>179</v>
@@ -23118,12 +23086,12 @@
         <v>0.0282007386680231</v>
       </c>
       <c r="K218" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B219" t="n">
         <v>179</v>
@@ -23153,12 +23121,12 @@
         <v>0.00341734483809256</v>
       </c>
       <c r="K219" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B220" t="n">
         <v>191</v>
@@ -23188,12 +23156,12 @@
         <v>0.00013271722618999</v>
       </c>
       <c r="K220" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B221" t="n">
         <v>78</v>
@@ -23223,12 +23191,12 @@
         <v>0.0379007437204025</v>
       </c>
       <c r="K221" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B222" t="n">
         <v>78</v>
@@ -23258,12 +23226,12 @@
         <v>0.0379007437204025</v>
       </c>
       <c r="K222" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B223" t="n">
         <v>78</v>
@@ -23293,12 +23261,12 @@
         <v>0.0378898611460895</v>
       </c>
       <c r="K223" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B224" t="n">
         <v>78</v>
@@ -23328,12 +23296,12 @@
         <v>0.0378898611460895</v>
       </c>
       <c r="K224" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B225" t="n">
         <v>78</v>
@@ -23363,12 +23331,12 @@
         <v>0.0190902140204113</v>
       </c>
       <c r="K225" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B226" t="n">
         <v>150</v>
@@ -23398,12 +23366,12 @@
         <v>0.000710225825243912</v>
       </c>
       <c r="K226" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B227" t="n">
         <v>178</v>
@@ -23433,12 +23401,12 @@
         <v>0.0161642109689721</v>
       </c>
       <c r="K227" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B228" t="n">
         <v>95</v>
@@ -23468,12 +23436,12 @@
         <v>0.0283373266625597</v>
       </c>
       <c r="K228" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B229" t="n">
         <v>78</v>
@@ -23503,12 +23471,12 @@
         <v>0.0190902140204113</v>
       </c>
       <c r="K229" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B230" t="n">
         <v>315</v>
@@ -23538,12 +23506,12 @@
         <v>0.000000000000000000000000000000995593057920258</v>
       </c>
       <c r="K230" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B231" t="n">
         <v>288</v>
@@ -23573,12 +23541,12 @@
         <v>0.00000000000000000000000165688779700718</v>
       </c>
       <c r="K231" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B232" t="n">
         <v>547</v>
@@ -23608,12 +23576,12 @@
         <v>0.00197904796657369</v>
       </c>
       <c r="K232" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B233" t="n">
         <v>547</v>
@@ -23643,12 +23611,12 @@
         <v>0.0251382747224709</v>
       </c>
       <c r="K233" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B234" t="n">
         <v>246</v>
@@ -23678,12 +23646,12 @@
         <v>0.0215121275883618</v>
       </c>
       <c r="K234" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B235" t="n">
         <v>150</v>
@@ -23713,12 +23681,12 @@
         <v>0.016753208501637</v>
       </c>
       <c r="K235" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B236" t="n">
         <v>257</v>
@@ -23748,12 +23716,12 @@
         <v>0.0100783901854461</v>
       </c>
       <c r="K236" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B237" t="n">
         <v>315</v>
@@ -23783,12 +23751,12 @@
         <v>0.00000971774008775818</v>
       </c>
       <c r="K237" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B238" t="n">
         <v>547</v>
@@ -23818,12 +23786,12 @@
         <v>0.0251382747224709</v>
       </c>
       <c r="K238" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B239" t="n">
         <v>288</v>
@@ -23853,12 +23821,12 @@
         <v>0.00906307969047697</v>
       </c>
       <c r="K239" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B240" t="n">
         <v>315</v>
@@ -23888,12 +23856,12 @@
         <v>0.00676597218249761</v>
       </c>
       <c r="K240" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B241" t="n">
         <v>266</v>
@@ -23923,12 +23891,12 @@
         <v>0.0111631359988263</v>
       </c>
       <c r="K241" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B242" t="n">
         <v>315</v>
@@ -23958,12 +23926,12 @@
         <v>0.0000505483325296703</v>
       </c>
       <c r="K242" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B243" t="n">
         <v>288</v>
@@ -23993,12 +23961,12 @@
         <v>0.0000000000000000289974462040465</v>
       </c>
       <c r="K243" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B244" t="n">
         <v>98</v>
@@ -24028,12 +23996,12 @@
         <v>0.0301563232076963</v>
       </c>
       <c r="K244" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B245" t="n">
         <v>252</v>
@@ -24063,12 +24031,12 @@
         <v>0.00124535286951447</v>
       </c>
       <c r="K245" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B246" t="n">
         <v>112</v>
@@ -24098,12 +24066,12 @@
         <v>0.0393848484121604</v>
       </c>
       <c r="K246" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B247" t="n">
         <v>252</v>
@@ -24133,12 +24101,12 @@
         <v>0.0231007818854227</v>
       </c>
       <c r="K247" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B248" t="n">
         <v>51</v>
@@ -24168,12 +24136,12 @@
         <v>0.00812650207196498</v>
       </c>
       <c r="K248" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B249" t="n">
         <v>51</v>
@@ -24203,12 +24171,12 @@
         <v>0.0161762173156864</v>
       </c>
       <c r="K249" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B250" t="n">
         <v>51</v>
@@ -24238,12 +24206,12 @@
         <v>0.00812650207196498</v>
       </c>
       <c r="K250" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B251" t="n">
         <v>49</v>
@@ -24273,12 +24241,12 @@
         <v>0.00587179237051552</v>
       </c>
       <c r="K251" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B252" t="n">
         <v>49</v>
@@ -24308,12 +24276,12 @@
         <v>0.0000009110177597552</v>
       </c>
       <c r="K252" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B253" t="n">
         <v>100</v>
@@ -24343,12 +24311,12 @@
         <v>0.0000000292260413434705</v>
       </c>
       <c r="K253" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B254" t="n">
         <v>100</v>
@@ -24378,12 +24346,12 @@
         <v>0.000000599761663224241</v>
       </c>
       <c r="K254" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B255" t="n">
         <v>95</v>
@@ -24413,12 +24381,12 @@
         <v>0.00125712635215148</v>
       </c>
       <c r="K255" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B256" t="n">
         <v>263</v>
@@ -24448,12 +24416,12 @@
         <v>0.00333884218306315</v>
       </c>
       <c r="K256" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B257" t="n">
         <v>149</v>
@@ -24483,12 +24451,12 @@
         <v>0.00196997009688013</v>
       </c>
       <c r="K257" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B258" t="n">
         <v>465</v>
@@ -24518,12 +24486,12 @@
         <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000141634081687314</v>
       </c>
       <c r="K258" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="B259" t="n">
         <v>303</v>
@@ -24553,12 +24521,12 @@
         <v>0.0000000000000000000000000000299497815314894</v>
       </c>
       <c r="K259" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="B260" t="n">
         <v>161</v>
@@ -24588,12 +24556,12 @@
         <v>0.0000000000000000000000000466528396796203</v>
       </c>
       <c r="K260" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B261" t="n">
         <v>266</v>
@@ -24623,12 +24591,12 @@
         <v>0.000000000000000000000000000000000000000000647867785448955</v>
       </c>
       <c r="K261" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B262" t="n">
         <v>274</v>
@@ -24658,12 +24626,12 @@
         <v>0.000000000000000000000000000000000192341283776525</v>
       </c>
       <c r="K262" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B263" t="n">
         <v>179</v>
@@ -24693,12 +24661,12 @@
         <v>0.0316804478873795</v>
       </c>
       <c r="K263" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B264" t="n">
         <v>179</v>
@@ -24728,12 +24696,12 @@
         <v>0.0000848828035792009</v>
       </c>
       <c r="K264" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B265" t="n">
         <v>98</v>
@@ -24763,12 +24731,12 @@
         <v>0.00000000000257359055752592</v>
       </c>
       <c r="K265" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B266" t="n">
         <v>246</v>
@@ -24798,12 +24766,12 @@
         <v>0.0021361527067423</v>
       </c>
       <c r="K266" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B267" t="n">
         <v>547</v>
@@ -24833,12 +24801,12 @@
         <v>5.84740244694224e-263</v>
       </c>
       <c r="K267" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B268" t="n">
         <v>125</v>
@@ -24868,12 +24836,12 @@
         <v>0.00000000000927522697804928</v>
       </c>
       <c r="K268" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B269" t="n">
         <v>315</v>
@@ -24903,12 +24871,12 @@
         <v>0.00000000000000000000000000000000000000000000893133480597576</v>
       </c>
       <c r="K269" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B270" t="n">
         <v>288</v>
@@ -24938,12 +24906,12 @@
         <v>0.00000000000000000000000000000000000021337009494974</v>
       </c>
       <c r="K270" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B271" t="n">
         <v>178</v>
@@ -24973,12 +24941,12 @@
         <v>0.000000000000000016099888235188</v>
       </c>
       <c r="K271" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B272" t="n">
         <v>191</v>
@@ -25008,12 +24976,12 @@
         <v>0.0000000000187693405942946</v>
       </c>
       <c r="K272" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="B273" t="n">
         <v>72</v>
@@ -25043,12 +25011,12 @@
         <v>0.0016636766968562</v>
       </c>
       <c r="K273" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B274" t="n">
         <v>150</v>
@@ -25078,12 +25046,12 @@
         <v>0.00189461199828418</v>
       </c>
       <c r="K274" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B275" t="n">
         <v>212</v>
@@ -25113,12 +25081,12 @@
         <v>0.000000000000000000222555631160355</v>
       </c>
       <c r="K275" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B276" t="n">
         <v>149</v>
@@ -25148,12 +25116,12 @@
         <v>0.0000000000000000375453056898236</v>
       </c>
       <c r="K276" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B277" t="n">
         <v>246</v>
@@ -25183,12 +25151,12 @@
         <v>0.0000000000000000000000000000363196875265763</v>
       </c>
       <c r="K277" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B278" t="n">
         <v>141</v>
@@ -25218,12 +25186,12 @@
         <v>0.00000000000803081869100705</v>
       </c>
       <c r="K278" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B279" t="n">
         <v>98</v>
@@ -25253,12 +25221,12 @@
         <v>0.0142461377224766</v>
       </c>
       <c r="K279" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B280" t="n">
         <v>252</v>
@@ -25288,12 +25256,12 @@
         <v>0.0000000000000000000000000000000000000000101858182382137</v>
       </c>
       <c r="K280" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B281" t="n">
         <v>288</v>
@@ -25323,12 +25291,12 @@
         <v>0.000000000000000000000000001342749187697</v>
       </c>
       <c r="K281" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B282" t="n">
         <v>257</v>
@@ -25358,12 +25326,12 @@
         <v>0.000000954322823684152</v>
       </c>
       <c r="K282" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B283" t="n">
         <v>252</v>
@@ -25393,12 +25361,12 @@
         <v>0.000000000249481725610635</v>
       </c>
       <c r="K283" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B284" t="n">
         <v>112</v>
@@ -25428,12 +25396,12 @@
         <v>0.000405756505878307</v>
       </c>
       <c r="K284" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B285" t="n">
         <v>263</v>
@@ -25463,12 +25431,12 @@
         <v>0.000091834681650772</v>
       </c>
       <c r="K285" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B286" t="n">
         <v>252</v>
@@ -25498,12 +25466,12 @@
         <v>0.00548356956974932</v>
       </c>
       <c r="K286" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B287" t="n">
         <v>130</v>
@@ -25533,12 +25501,12 @@
         <v>0.00284452789890446</v>
       </c>
       <c r="K287" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B288" t="n">
         <v>112</v>
@@ -25568,12 +25536,12 @@
         <v>0.0232351468795927</v>
       </c>
       <c r="K288" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B289" t="n">
         <v>112</v>
@@ -25603,12 +25571,12 @@
         <v>0.00737833415307106</v>
       </c>
       <c r="K289" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B290" t="n">
         <v>96</v>
@@ -25638,12 +25606,12 @@
         <v>0.0104611047371761</v>
       </c>
       <c r="K290" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B291" t="n">
         <v>49</v>
@@ -25673,12 +25641,12 @@
         <v>0.00310442182537742</v>
       </c>
       <c r="K291" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="B292" t="n">
         <v>44</v>
@@ -25708,12 +25676,12 @@
         <v>0.0486833400746058</v>
       </c>
       <c r="K292" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B293" t="n">
         <v>252</v>
@@ -25743,12 +25711,12 @@
         <v>0.00000000000504297696953779</v>
       </c>
       <c r="K293" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B294" t="n">
         <v>96</v>
@@ -25778,12 +25746,12 @@
         <v>0.000306589791834382</v>
       </c>
       <c r="K294" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B295" t="n">
         <v>179</v>
@@ -25813,12 +25781,12 @@
         <v>0.0000897805439726675</v>
       </c>
       <c r="K295" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B296" t="n">
         <v>179</v>
@@ -25848,12 +25816,12 @@
         <v>0.0000357055270032378</v>
       </c>
       <c r="K296" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B297" t="n">
         <v>49</v>
@@ -25883,12 +25851,12 @@
         <v>0.000000000000988251218070511</v>
       </c>
       <c r="K297" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B298" t="n">
         <v>49</v>
@@ -25918,12 +25886,12 @@
         <v>0.0000000327953065414482</v>
       </c>
       <c r="K298" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B299" t="n">
         <v>96</v>
@@ -25953,12 +25921,12 @@
         <v>0.00203604114414243</v>
       </c>
       <c r="K299" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B300" t="n">
         <v>179</v>
@@ -25988,12 +25956,12 @@
         <v>0.000827333415127382</v>
       </c>
       <c r="K300" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B301" t="n">
         <v>61</v>
@@ -26023,12 +25991,12 @@
         <v>0.0232574621835541</v>
       </c>
       <c r="K301" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B302" t="n">
         <v>141</v>
@@ -26058,12 +26026,12 @@
         <v>0.000108225780877049</v>
       </c>
       <c r="K302" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B303" t="n">
         <v>246</v>
@@ -26093,12 +26061,12 @@
         <v>0.0000817275882049379</v>
       </c>
       <c r="K303" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B304" t="n">
         <v>187</v>
@@ -26128,12 +26096,12 @@
         <v>0.0000185665264951525</v>
       </c>
       <c r="K304" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B305" t="n">
         <v>141</v>
@@ -26163,12 +26131,12 @@
         <v>0.0151723941457946</v>
       </c>
       <c r="K305" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B306" t="n">
         <v>187</v>
@@ -26198,12 +26166,12 @@
         <v>0.00522774921544228</v>
       </c>
       <c r="K306" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B307" t="n">
         <v>246</v>
@@ -26233,12 +26201,12 @@
         <v>0.00352261336611944</v>
       </c>
       <c r="K307" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B308" t="n">
         <v>141</v>
@@ -26268,12 +26236,12 @@
         <v>0.00000311836645983192</v>
       </c>
       <c r="K308" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B309" t="n">
         <v>125</v>
@@ -26303,12 +26271,12 @@
         <v>0.00029279449848289</v>
       </c>
       <c r="K309" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B310" t="n">
         <v>547</v>
@@ -26338,182 +26306,7 @@
         <v>0.0274951911960793</v>
       </c>
       <c r="K310" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B311" t="n">
-        <v>45</v>
-      </c>
-      <c r="C311" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D311" t="n">
-        <v>782</v>
-      </c>
-      <c r="E311" t="n">
-        <v>781</v>
-      </c>
-      <c r="F311" t="n">
-        <v>23</v>
-      </c>
-      <c r="G311" t="n">
-        <v>4.51895424836601</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0.0000000000450506868932945</v>
-      </c>
-      <c r="I311" t="n">
-        <v>0.000000000574396257889505</v>
-      </c>
-      <c r="J311" t="n">
-        <v>0.00000000229758503155802</v>
-      </c>
-      <c r="K311" t="s">
-        <v>2337</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s">
-        <v>2034</v>
-      </c>
-      <c r="B312" t="n">
-        <v>100</v>
-      </c>
-      <c r="C312" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D312" t="n">
-        <v>782</v>
-      </c>
-      <c r="E312" t="n">
-        <v>781</v>
-      </c>
-      <c r="F312" t="n">
-        <v>46</v>
-      </c>
-      <c r="G312" t="n">
-        <v>4.06705882352941</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0.00000000000000000158600759626821</v>
-      </c>
-      <c r="I312" t="n">
-        <v>0.0000000000000000404431937048393</v>
-      </c>
-      <c r="J312" t="n">
-        <v>0.0000000000000000808863874096786</v>
-      </c>
-      <c r="K312" t="s">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s">
-        <v>2339</v>
-      </c>
-      <c r="B313" t="n">
-        <v>221</v>
-      </c>
-      <c r="C313" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D313" t="n">
-        <v>782</v>
-      </c>
-      <c r="E313" t="n">
-        <v>781</v>
-      </c>
-      <c r="F313" t="n">
-        <v>85</v>
-      </c>
-      <c r="G313" t="n">
-        <v>3.40055085579382</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0.0000000000000000000000000115938671483581</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0.000000000000000000000000591287224566264</v>
-      </c>
-      <c r="J313" t="n">
-        <v>0.000000000000000000000000591287224566264</v>
-      </c>
-      <c r="K313" t="s">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>2129</v>
-      </c>
-      <c r="B314" t="n">
-        <v>98</v>
-      </c>
-      <c r="C314" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D314" t="n">
-        <v>782</v>
-      </c>
-      <c r="E314" t="n">
-        <v>781</v>
-      </c>
-      <c r="F314" t="n">
-        <v>36</v>
-      </c>
-      <c r="G314" t="n">
-        <v>3.24787306226839</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0.0000000000322429823404991</v>
-      </c>
-      <c r="I314" t="n">
-        <v>0.000000000548130699788486</v>
-      </c>
-      <c r="J314" t="n">
-        <v>0.00000000164439209936546</v>
-      </c>
-      <c r="K314" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>2303</v>
-      </c>
-      <c r="B315" t="n">
-        <v>141</v>
-      </c>
-      <c r="C315" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D315" t="n">
-        <v>782</v>
-      </c>
-      <c r="E315" t="n">
-        <v>781</v>
-      </c>
-      <c r="F315" t="n">
-        <v>33</v>
-      </c>
-      <c r="G315" t="n">
-        <v>2.06927137182347</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0.0000301620241402731</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0.000307652646230786</v>
-      </c>
-      <c r="J315" t="n">
-        <v>0.00153826323115393</v>
-      </c>
-      <c r="K315" t="s">
-        <v>2342</v>
+        <v>2334</v>
       </c>
     </row>
   </sheetData>
